--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.421984962856105</v>
+        <v>0.02333866666666666</v>
       </c>
       <c r="H2">
-        <v>0.421984962856105</v>
+        <v>0.07001599999999999</v>
       </c>
       <c r="I2">
-        <v>0.5132650861422414</v>
+        <v>0.02232702898342756</v>
       </c>
       <c r="J2">
-        <v>0.5132650861422414</v>
+        <v>0.02232702898342756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.07006731853707</v>
+        <v>1.720171333333333</v>
       </c>
       <c r="N2">
-        <v>4.07006731853707</v>
+        <v>5.160514</v>
       </c>
       <c r="O2">
-        <v>0.579037915209188</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="P2">
-        <v>0.579037915209188</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="Q2">
-        <v>1.717507206234713</v>
+        <v>0.04014650535822221</v>
       </c>
       <c r="R2">
-        <v>1.717507206234713</v>
+        <v>0.361318548224</v>
       </c>
       <c r="S2">
-        <v>0.2971999454294678</v>
+        <v>0.004379349291892942</v>
       </c>
       <c r="T2">
-        <v>0.2971999454294678</v>
+        <v>0.004379349291892942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,111 +596,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.421984962856105</v>
+        <v>0.02333866666666666</v>
       </c>
       <c r="H3">
-        <v>0.421984962856105</v>
+        <v>0.07001599999999999</v>
       </c>
       <c r="I3">
-        <v>0.5132650861422414</v>
+        <v>0.02232702898342756</v>
       </c>
       <c r="J3">
-        <v>0.5132650861422414</v>
+        <v>0.02232702898342756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.95894962773092</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N3">
-        <v>2.95894962773092</v>
+        <v>12.229166</v>
       </c>
       <c r="O3">
-        <v>0.420962084790812</v>
+        <v>0.464817562438416</v>
       </c>
       <c r="P3">
-        <v>0.420962084790812</v>
+        <v>0.464817562438416</v>
       </c>
       <c r="Q3">
-        <v>1.248632248751118</v>
+        <v>0.0951374762951111</v>
       </c>
       <c r="R3">
-        <v>1.248632248751118</v>
+        <v>0.8562372866559999</v>
       </c>
       <c r="S3">
-        <v>0.2160651407127737</v>
+        <v>0.01037799518856867</v>
       </c>
       <c r="T3">
-        <v>0.2160651407127737</v>
+        <v>0.01037799518856866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.400172971220011</v>
+        <v>0.02333866666666666</v>
       </c>
       <c r="H4">
-        <v>0.400172971220011</v>
+        <v>0.07001599999999999</v>
       </c>
       <c r="I4">
-        <v>0.4867349138577585</v>
+        <v>0.02232702898342756</v>
       </c>
       <c r="J4">
-        <v>0.4867349138577585</v>
+        <v>0.02232702898342756</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.07006731853707</v>
+        <v>2.973308</v>
       </c>
       <c r="N4">
-        <v>4.07006731853707</v>
+        <v>8.919924</v>
       </c>
       <c r="O4">
-        <v>0.579037915209188</v>
+        <v>0.3390368019222182</v>
       </c>
       <c r="P4">
-        <v>0.579037915209188</v>
+        <v>0.3390368019222182</v>
       </c>
       <c r="Q4">
-        <v>1.628730931924442</v>
+        <v>0.06939304430933332</v>
       </c>
       <c r="R4">
-        <v>1.628730931924442</v>
+        <v>0.6245373987839999</v>
       </c>
       <c r="S4">
-        <v>0.2818379697797202</v>
+        <v>0.007569684502965955</v>
       </c>
       <c r="T4">
-        <v>0.2818379697797202</v>
+        <v>0.007569684502965955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5726236666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.717871</v>
+      </c>
+      <c r="I5">
+        <v>0.5478027251883811</v>
+      </c>
+      <c r="J5">
+        <v>0.547802725188381</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.720171333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.160514</v>
+      </c>
+      <c r="O5">
+        <v>0.1961456356393658</v>
+      </c>
+      <c r="P5">
+        <v>0.1961456356393658</v>
+      </c>
+      <c r="Q5">
+        <v>0.9850108161882222</v>
+      </c>
+      <c r="R5">
+        <v>8.865097345694</v>
+      </c>
+      <c r="S5">
+        <v>0.1074491137370518</v>
+      </c>
+      <c r="T5">
+        <v>0.1074491137370518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5726236666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.717871</v>
+      </c>
+      <c r="I6">
+        <v>0.5478027251883811</v>
+      </c>
+      <c r="J6">
+        <v>0.547802725188381</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N6">
+        <v>12.229166</v>
+      </c>
+      <c r="O6">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="P6">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="Q6">
+        <v>2.334236625065111</v>
+      </c>
+      <c r="R6">
+        <v>21.008129625586</v>
+      </c>
+      <c r="S6">
+        <v>0.2546283274191848</v>
+      </c>
+      <c r="T6">
+        <v>0.2546283274191847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5726236666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.717871</v>
+      </c>
+      <c r="I7">
+        <v>0.5478027251883811</v>
+      </c>
+      <c r="J7">
+        <v>0.547802725188381</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.973308</v>
+      </c>
+      <c r="N7">
+        <v>8.919924</v>
+      </c>
+      <c r="O7">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="P7">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="Q7">
+        <v>1.702586529089333</v>
+      </c>
+      <c r="R7">
+        <v>15.323278761804</v>
+      </c>
+      <c r="S7">
+        <v>0.1857252840321445</v>
+      </c>
+      <c r="T7">
+        <v>0.1857252840321445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.01673266666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.050198</v>
+      </c>
+      <c r="I8">
+        <v>0.01600737261354686</v>
+      </c>
+      <c r="J8">
+        <v>0.01600737261354686</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.720171333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.160514</v>
+      </c>
+      <c r="O8">
+        <v>0.1961456356393658</v>
+      </c>
+      <c r="P8">
+        <v>0.1961456356393658</v>
+      </c>
+      <c r="Q8">
+        <v>0.02878305353022222</v>
+      </c>
+      <c r="R8">
+        <v>0.259047481772</v>
+      </c>
+      <c r="S8">
+        <v>0.003139776276200324</v>
+      </c>
+      <c r="T8">
+        <v>0.003139776276200324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.01673266666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.050198</v>
+      </c>
+      <c r="I9">
+        <v>0.01600737261354686</v>
+      </c>
+      <c r="J9">
+        <v>0.01600737261354686</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N9">
+        <v>12.229166</v>
+      </c>
+      <c r="O9">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="P9">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="Q9">
+        <v>0.0682088527631111</v>
+      </c>
+      <c r="R9">
+        <v>0.613879674868</v>
+      </c>
+      <c r="S9">
+        <v>0.007440507919272307</v>
+      </c>
+      <c r="T9">
+        <v>0.007440507919272307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.01673266666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.050198</v>
+      </c>
+      <c r="I10">
+        <v>0.01600737261354686</v>
+      </c>
+      <c r="J10">
+        <v>0.01600737261354686</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.973308</v>
+      </c>
+      <c r="N10">
+        <v>8.919924</v>
+      </c>
+      <c r="O10">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="P10">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="Q10">
+        <v>0.04975137166133333</v>
+      </c>
+      <c r="R10">
+        <v>0.447762344952</v>
+      </c>
+      <c r="S10">
+        <v>0.005427088418074227</v>
+      </c>
+      <c r="T10">
+        <v>0.005427088418074226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.432615</v>
+      </c>
+      <c r="H11">
+        <v>1.297845</v>
+      </c>
+      <c r="I11">
+        <v>0.4138628732146445</v>
+      </c>
+      <c r="J11">
+        <v>0.4138628732146445</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.720171333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.160514</v>
+      </c>
+      <c r="O11">
+        <v>0.1961456356393658</v>
+      </c>
+      <c r="P11">
+        <v>0.1961456356393658</v>
+      </c>
+      <c r="Q11">
+        <v>0.74417192137</v>
+      </c>
+      <c r="R11">
+        <v>6.69754729233</v>
+      </c>
+      <c r="S11">
+        <v>0.08117739633422069</v>
+      </c>
+      <c r="T11">
+        <v>0.08117739633422069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.400172971220011</v>
-      </c>
-      <c r="H5">
-        <v>0.400172971220011</v>
-      </c>
-      <c r="I5">
-        <v>0.4867349138577585</v>
-      </c>
-      <c r="J5">
-        <v>0.4867349138577585</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.95894962773092</v>
-      </c>
-      <c r="N5">
-        <v>2.95894962773092</v>
-      </c>
-      <c r="O5">
-        <v>0.420962084790812</v>
-      </c>
-      <c r="P5">
-        <v>0.420962084790812</v>
-      </c>
-      <c r="Q5">
-        <v>1.184091664219428</v>
-      </c>
-      <c r="R5">
-        <v>1.184091664219428</v>
-      </c>
-      <c r="S5">
-        <v>0.2048969440780383</v>
-      </c>
-      <c r="T5">
-        <v>0.2048969440780383</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.432615</v>
+      </c>
+      <c r="H12">
+        <v>1.297845</v>
+      </c>
+      <c r="I12">
+        <v>0.4138628732146445</v>
+      </c>
+      <c r="J12">
+        <v>0.4138628732146445</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N12">
+        <v>12.229166</v>
+      </c>
+      <c r="O12">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="P12">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="Q12">
+        <v>1.76350688303</v>
+      </c>
+      <c r="R12">
+        <v>15.87156194727</v>
+      </c>
+      <c r="S12">
+        <v>0.1923707319113903</v>
+      </c>
+      <c r="T12">
+        <v>0.1923707319113903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.432615</v>
+      </c>
+      <c r="H13">
+        <v>1.297845</v>
+      </c>
+      <c r="I13">
+        <v>0.4138628732146445</v>
+      </c>
+      <c r="J13">
+        <v>0.4138628732146445</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.973308</v>
+      </c>
+      <c r="N13">
+        <v>8.919924</v>
+      </c>
+      <c r="O13">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="P13">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="Q13">
+        <v>1.28629764042</v>
+      </c>
+      <c r="R13">
+        <v>11.57667876378</v>
+      </c>
+      <c r="S13">
+        <v>0.1403147449690335</v>
+      </c>
+      <c r="T13">
+        <v>0.1403147449690335</v>
       </c>
     </row>
   </sheetData>
